--- a/scores/round_1_scores.xlsx
+++ b/scores/round_1_scores.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCB658D5-7D57-4E9E-8F21-9D513BD30BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{879E4C41-0209-4CA1-8773-89870D402646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1077,17 +1077,17 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.109375" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.77734375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" style="8" customWidth="1"/>
-    <col min="5" max="6" width="5.6640625" style="8" customWidth="1"/>
-    <col min="7" max="7" width="16.33203125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="8" customWidth="1"/>
+    <col min="5" max="6" width="5.7109375" style="8" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" s="16" t="s">
         <v>9</v>
       </c>
@@ -1095,13 +1095,13 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B3" s="17" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="18"/>
     </row>
-    <row r="4" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>76</v>
       </c>
@@ -1112,7 +1112,7 @@
       <c r="F4" s="9"/>
       <c r="G4" s="6"/>
     </row>
-    <row r="6" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
@@ -1123,7 +1123,7 @@
       <c r="F6" s="10"/>
       <c r="G6" s="7"/>
     </row>
-    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E7" s="8" t="s">
         <v>77</v>
       </c>
@@ -1131,7 +1131,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>1</v>
       </c>
@@ -1154,7 +1154,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>2</v>
       </c>
@@ -1177,7 +1177,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>3</v>
       </c>
@@ -1200,7 +1200,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>4</v>
       </c>
@@ -1223,7 +1223,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>5</v>
       </c>
@@ -1245,7 +1245,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>6</v>
       </c>
@@ -1264,7 +1264,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>7</v>
       </c>
@@ -1283,7 +1283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>8</v>
       </c>
@@ -1302,7 +1302,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>9</v>
       </c>
@@ -1321,7 +1321,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>10</v>
       </c>
@@ -1340,7 +1340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>11</v>
       </c>
@@ -1359,7 +1359,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>12</v>
       </c>
@@ -1378,7 +1378,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>13</v>
       </c>
@@ -1397,7 +1397,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>14</v>
       </c>
@@ -1416,7 +1416,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>15</v>
       </c>
@@ -1435,7 +1435,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>16</v>
       </c>
@@ -1454,7 +1454,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>17</v>
       </c>
@@ -1473,7 +1473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>18</v>
       </c>
@@ -1492,7 +1492,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>19</v>
       </c>
@@ -1511,7 +1511,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>20</v>
       </c>
@@ -1530,7 +1530,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>21</v>
       </c>
@@ -1549,7 +1549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>22</v>
       </c>
@@ -1568,7 +1568,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>23</v>
       </c>
@@ -1587,7 +1587,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>24</v>
       </c>
@@ -1606,7 +1606,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>25</v>
       </c>
@@ -1625,7 +1625,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>26</v>
       </c>
@@ -1644,7 +1644,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>27</v>
       </c>
@@ -1663,7 +1663,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>28</v>
       </c>
@@ -1682,7 +1682,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>29</v>
       </c>
@@ -1701,7 +1701,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
         <v>30</v>
       </c>
@@ -1720,7 +1720,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
         <v>31</v>
       </c>
@@ -1739,7 +1739,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="5">
         <v>32</v>
       </c>
@@ -1758,7 +1758,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
         <v>33</v>
       </c>
@@ -1777,7 +1777,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="5">
         <v>34</v>
       </c>
@@ -1796,7 +1796,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5">
         <v>35</v>
       </c>
@@ -1815,7 +1815,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="5">
         <v>36</v>
       </c>
@@ -1834,7 +1834,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
         <v>11</v>
       </c>
@@ -1842,37 +1842,37 @@
         <v>29</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A47" s="12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
         <v>29</v>
       </c>
